--- a/storage/data/halal_merek/Data Merek 2017 update 29 DESEMBER 2020.xlsx
+++ b/storage/data/halal_merek/Data Merek 2017 update 29 DESEMBER 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Disdag Nini\ukm-disdag\storage\data\halal_merek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF68F015-955C-48D4-8DE3-7C19C51C13D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F0439-A62D-4B29-8548-F54569FBBB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="1339">
   <si>
     <t>NO</t>
   </si>
@@ -15990,8 +15990,8 @@
   </sheetPr>
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.453125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -16338,420 +16338,164 @@
       <c r="R13" s="157"/>
     </row>
     <row r="14" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>643</v>
-      </c>
-      <c r="C14" s="163" t="s">
-        <v>693</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>743</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="75"/>
-      <c r="F14" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="163" t="s">
-        <v>833</v>
-      </c>
-      <c r="I14" s="162" t="s">
-        <v>889</v>
-      </c>
-      <c r="J14" s="162" t="s">
-        <v>890</v>
-      </c>
-      <c r="K14" s="162" t="s">
-        <v>890</v>
-      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
       <c r="L14" s="77"/>
-      <c r="M14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="78" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O14" s="79">
-        <v>42935</v>
-      </c>
-      <c r="P14" s="78" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q14" s="164" t="s">
-        <v>1307</v>
-      </c>
-      <c r="R14" s="157" t="s">
-        <v>1272</v>
-      </c>
+      <c r="M14" s="76"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="157"/>
     </row>
     <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>744</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>892</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>892</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>1030</v>
-      </c>
-      <c r="O15" s="44">
-        <v>43004</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>1275</v>
-      </c>
-      <c r="R15" s="157" t="s">
-        <v>1277</v>
-      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="157"/>
     </row>
     <row r="16" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>350</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="75"/>
-      <c r="F16" s="76" t="s">
-        <v>491</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>492</v>
-      </c>
-      <c r="H16" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="J16" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="K16" s="76" t="s">
-        <v>455</v>
-      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="77"/>
-      <c r="M16" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="78" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O16" s="79">
-        <v>42902</v>
-      </c>
-      <c r="P16" s="78" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q16" s="78" t="s">
-        <v>1253</v>
-      </c>
-      <c r="R16" s="157" t="s">
-        <v>1272</v>
-      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="157"/>
     </row>
     <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>986</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>988</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>1019</v>
-      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>1032</v>
-      </c>
-      <c r="O17" s="44">
-        <v>43024</v>
-      </c>
-      <c r="P17" s="161" t="s">
-        <v>1335</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R17" s="167" t="s">
-        <v>1335</v>
-      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="167"/>
     </row>
     <row r="18" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>155</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="82"/>
-      <c r="F18" s="77" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>225</v>
-      </c>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="77"/>
-      <c r="M18" s="76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N18" s="83" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O18" s="79">
-        <v>42874</v>
-      </c>
-      <c r="P18" s="78" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q18" s="78" t="s">
-        <v>1209</v>
-      </c>
-      <c r="R18" s="157" t="s">
-        <v>1272</v>
-      </c>
+      <c r="M18" s="76"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="157"/>
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>745</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>894</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>894</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O19" s="44">
-        <v>43003</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>1276</v>
-      </c>
-      <c r="R19" s="157" t="s">
-        <v>1277</v>
-      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="157"/>
     </row>
     <row r="20" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" s="134" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="134" t="s">
-        <v>378</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="132"/>
-      <c r="F20" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="G20" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="138" t="s">
-        <v>413</v>
-      </c>
-      <c r="I20" s="134" t="s">
-        <v>448</v>
-      </c>
-      <c r="J20" s="134" t="s">
-        <v>482</v>
-      </c>
-      <c r="K20" s="134" t="s">
-        <v>482</v>
-      </c>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
       <c r="L20" s="133"/>
-      <c r="M20" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="135" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O20" s="136">
-        <v>42902</v>
-      </c>
-      <c r="P20" s="135" t="s">
-        <v>1266</v>
-      </c>
-      <c r="Q20" s="137" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R20" s="157" t="s">
-        <v>1266</v>
-      </c>
+      <c r="M20" s="134"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="157"/>
     </row>
     <row r="21" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>136</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="75"/>
-      <c r="F21" s="77" t="s">
-        <v>577</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="H21" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="76" t="s">
-        <v>205</v>
-      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
       <c r="L21" s="77"/>
-      <c r="M21" s="76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N21" s="83" t="s">
-        <v>1183</v>
-      </c>
-      <c r="O21" s="79">
-        <v>42874</v>
-      </c>
-      <c r="P21" s="78" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q21" s="78" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R21" s="157" t="s">
-        <v>1272</v>
-      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="157"/>
     </row>
     <row r="22" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">

--- a/storage/data/halal_merek/Data Merek 2017 update 29 DESEMBER 2020.xlsx
+++ b/storage/data/halal_merek/Data Merek 2017 update 29 DESEMBER 2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Disdag Nini\ukm-disdag\storage\data\halal_merek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\disdag\storage\data\halal_merek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F0439-A62D-4B29-8548-F54569FBBB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="permohonan sertifikat " sheetId="5" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="1339">
   <si>
     <t>NO</t>
   </si>
@@ -4051,7 +4050,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4918,9 +4917,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5011,23 +5010,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5063,23 +5045,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5255,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -5265,27 +5230,27 @@
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.453125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="51" customWidth="1"/>
     <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="51"/>
-    <col min="11" max="11" width="30.453125" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" customWidth="1"/>
-    <col min="14" max="14" width="29.26953125" style="67" customWidth="1"/>
-    <col min="15" max="15" width="30.54296875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="51"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="42" customWidth="1"/>
     <col min="16" max="16" width="34" style="70" customWidth="1"/>
-    <col min="17" max="17" width="43.7265625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" style="156" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="169" t="s">
         <v>1180</v>
       </c>
@@ -5306,7 +5271,7 @@
       <c r="P1" s="169"/>
       <c r="Q1" s="169"/>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>56</v>
       </c>
@@ -5327,7 +5292,7 @@
       <c r="P2" s="170"/>
       <c r="Q2" s="170"/>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
         <v>1274</v>
       </c>
@@ -5348,7 +5313,7 @@
       <c r="P3" s="171"/>
       <c r="Q3" s="171"/>
     </row>
-    <row r="4" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="149" t="s">
         <v>57</v>
       </c>
@@ -5364,7 +5329,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5380,7 +5345,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="65"/>
     </row>
-    <row r="6" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
@@ -5436,7 +5401,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5488,7 +5453,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -5538,7 +5503,7 @@
       </c>
       <c r="R8" s="157"/>
     </row>
-    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -5590,7 +5555,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -5642,7 +5607,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -5694,7 +5659,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -5746,7 +5711,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -5798,7 +5763,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -5850,7 +5815,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -5902,7 +5867,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -5954,7 +5919,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -6006,7 +5971,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -6058,7 +6023,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -6110,7 +6075,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -6162,7 +6127,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -6214,7 +6179,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -6266,7 +6231,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -6318,7 +6283,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -6370,7 +6335,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -6422,7 +6387,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -6474,7 +6439,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -6526,7 +6491,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -6578,7 +6543,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -6630,7 +6595,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -6682,7 +6647,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -6734,7 +6699,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -6786,7 +6751,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -6838,7 +6803,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -6890,7 +6855,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -6942,7 +6907,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -6994,7 +6959,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -7046,7 +7011,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -7098,7 +7063,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -7150,7 +7115,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -7202,7 +7167,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -7254,7 +7219,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -7306,7 +7271,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -7358,7 +7323,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -7410,7 +7375,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -7462,7 +7427,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -7514,7 +7479,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -7566,7 +7531,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -7618,7 +7583,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -7670,7 +7635,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -7722,7 +7687,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="51" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" ht="51" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -7774,7 +7739,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -7826,7 +7791,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -7878,7 +7843,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -7930,7 +7895,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -7982,7 +7947,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -8034,7 +7999,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -8086,7 +8051,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -8138,7 +8103,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -8190,7 +8155,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -8242,7 +8207,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -8294,7 +8259,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -8346,7 +8311,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -8398,7 +8363,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -8450,7 +8415,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -8502,7 +8467,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -8554,7 +8519,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -8606,7 +8571,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -8658,7 +8623,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -8710,7 +8675,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -8762,7 +8727,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -8814,7 +8779,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -8866,7 +8831,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -8918,7 +8883,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -8970,7 +8935,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -9022,7 +8987,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -9074,7 +9039,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -9126,7 +9091,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -9178,7 +9143,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -9230,7 +9195,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -9282,7 +9247,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -9334,7 +9299,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -9386,7 +9351,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -9438,7 +9403,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -9490,7 +9455,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -9542,7 +9507,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -9594,7 +9559,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -9646,7 +9611,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -9698,7 +9663,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -9750,7 +9715,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -9802,7 +9767,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -9854,7 +9819,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -9906,7 +9871,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -9958,7 +9923,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -10010,7 +9975,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -10062,7 +10027,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -10114,7 +10079,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -10166,7 +10131,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -10218,7 +10183,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -10270,7 +10235,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -10322,7 +10287,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -10374,7 +10339,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -10426,7 +10391,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -10478,7 +10443,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -10530,7 +10495,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -10582,7 +10547,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -10634,7 +10599,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -10686,7 +10651,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -10738,7 +10703,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -10790,7 +10755,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -10842,7 +10807,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -10894,7 +10859,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -10946,7 +10911,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -10998,7 +10963,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -11050,7 +11015,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -11102,7 +11067,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -11154,7 +11119,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -11206,7 +11171,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -11258,7 +11223,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -11306,7 +11271,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -11358,7 +11323,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -11410,7 +11375,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -11462,7 +11427,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -11514,7 +11479,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -11566,7 +11531,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -11618,7 +11583,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -11670,7 +11635,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -11722,7 +11687,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -11774,7 +11739,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -11826,7 +11791,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -11878,7 +11843,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -11930,7 +11895,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -11982,7 +11947,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -12034,7 +11999,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -12086,7 +12051,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -12138,7 +12103,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -12190,7 +12155,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="155">
         <v>131</v>
       </c>
@@ -12242,7 +12207,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -12294,7 +12259,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -12346,7 +12311,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -12398,7 +12363,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -12448,7 +12413,7 @@
       </c>
       <c r="R141" s="157"/>
     </row>
-    <row r="142" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -12500,7 +12465,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -12552,7 +12517,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -12604,7 +12569,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -12656,7 +12621,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -12708,7 +12673,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -12760,7 +12725,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -12812,7 +12777,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -12864,7 +12829,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -12916,7 +12881,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -12968,7 +12933,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -13020,7 +12985,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -13072,7 +13037,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -13124,7 +13089,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -13176,7 +13141,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="51" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:18" ht="51" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -13228,10 +13193,10 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M157" s="36"/>
     </row>
-    <row r="158" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="148" t="s">
         <v>1334</v>
       </c>
@@ -13249,33 +13214,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.453125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="51"/>
-    <col min="11" max="11" width="30.453125" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" customWidth="1"/>
-    <col min="14" max="14" width="29.26953125" style="67" customWidth="1"/>
-    <col min="15" max="15" width="21.26953125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="20.7265625" style="70" customWidth="1"/>
-    <col min="17" max="17" width="24.1796875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="51"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="70" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="169" t="s">
         <v>1180</v>
       </c>
@@ -13296,7 +13261,7 @@
       <c r="P1" s="169"/>
       <c r="Q1" s="169"/>
     </row>
-    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>56</v>
       </c>
@@ -13317,7 +13282,7 @@
       <c r="P2" s="170"/>
       <c r="Q2" s="170"/>
     </row>
-    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
         <v>1181</v>
       </c>
@@ -13338,7 +13303,7 @@
       <c r="P3" s="171"/>
       <c r="Q3" s="171"/>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -13354,7 +13319,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13370,7 +13335,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="65"/>
     </row>
-    <row r="6" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
@@ -13423,7 +13388,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -13472,7 +13437,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -13521,7 +13486,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -13570,7 +13535,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -13619,7 +13584,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -13668,7 +13633,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -13717,7 +13682,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -13766,7 +13731,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -13815,7 +13780,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -13864,7 +13829,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -13913,7 +13878,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -13962,7 +13927,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -14011,7 +13976,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -14060,7 +14025,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -14109,7 +14074,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -14158,7 +14123,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -14207,7 +14172,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -14256,7 +14221,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -14305,7 +14270,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -14354,7 +14319,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -14403,7 +14368,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -14452,7 +14417,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -14501,7 +14466,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -14550,7 +14515,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -14599,7 +14564,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -14648,7 +14613,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -14697,7 +14662,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -14746,7 +14711,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -14795,7 +14760,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -14844,7 +14809,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -14893,7 +14858,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -14942,7 +14907,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -14991,7 +14956,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -15040,7 +15005,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -15089,7 +15054,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -15138,7 +15103,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -15187,7 +15152,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -15236,7 +15201,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -15285,7 +15250,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -15334,7 +15299,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -15383,7 +15348,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -15432,7 +15397,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -15481,7 +15446,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -15530,7 +15495,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -15579,7 +15544,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -15628,7 +15593,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -15677,7 +15642,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -15726,7 +15691,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -15775,7 +15740,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -15824,7 +15789,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -15873,7 +15838,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -15922,7 +15887,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -15984,37 +15949,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.453125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="51" customWidth="1"/>
     <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" style="51"/>
-    <col min="11" max="11" width="30.453125" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" customWidth="1"/>
-    <col min="14" max="14" width="29.26953125" style="67" customWidth="1"/>
-    <col min="15" max="15" width="30.54296875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="51"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="42" customWidth="1"/>
     <col min="16" max="16" width="34" style="70" customWidth="1"/>
-    <col min="17" max="17" width="43.7265625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" style="156" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="169" t="s">
         <v>1180</v>
       </c>
@@ -16035,7 +16001,7 @@
       <c r="P1" s="169"/>
       <c r="Q1" s="169"/>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>56</v>
       </c>
@@ -16056,7 +16022,7 @@
       <c r="P2" s="170"/>
       <c r="Q2" s="170"/>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
         <v>1274</v>
       </c>
@@ -16077,7 +16043,7 @@
       <c r="P3" s="171"/>
       <c r="Q3" s="171"/>
     </row>
-    <row r="4" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="149" t="s">
         <v>57</v>
       </c>
@@ -16093,7 +16059,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16109,7 +16075,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="65"/>
     </row>
-    <row r="6" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
@@ -16165,7 +16131,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -16217,7 +16183,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="130"/>
       <c r="C8" s="131"/>
@@ -16237,7 +16203,7 @@
       <c r="Q8" s="137"/>
       <c r="R8" s="157"/>
     </row>
-    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
@@ -16257,7 +16223,7 @@
       <c r="Q9" s="45"/>
       <c r="R9" s="157"/>
     </row>
-    <row r="10" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -16277,7 +16243,7 @@
       <c r="Q10" s="152"/>
       <c r="R10" s="157"/>
     </row>
-    <row r="11" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -16297,7 +16263,7 @@
       <c r="Q11" s="43"/>
       <c r="R11" s="167"/>
     </row>
-    <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="88"/>
       <c r="C12" s="165"/>
@@ -16317,7 +16283,7 @@
       <c r="Q12" s="164"/>
       <c r="R12" s="157"/>
     </row>
-    <row r="13" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="76"/>
       <c r="C13" s="81"/>
@@ -16337,7 +16303,7 @@
       <c r="Q13" s="89"/>
       <c r="R13" s="157"/>
     </row>
-    <row r="14" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="162"/>
       <c r="C14" s="163"/>
@@ -16357,7 +16323,7 @@
       <c r="Q14" s="164"/>
       <c r="R14" s="157"/>
     </row>
-    <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -16377,7 +16343,7 @@
       <c r="Q15" s="45"/>
       <c r="R15" s="157"/>
     </row>
-    <row r="16" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="76"/>
       <c r="C16" s="80"/>
@@ -16397,7 +16363,7 @@
       <c r="Q16" s="78"/>
       <c r="R16" s="157"/>
     </row>
-    <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -16417,7 +16383,7 @@
       <c r="Q17" s="43"/>
       <c r="R17" s="167"/>
     </row>
-    <row r="18" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="76"/>
       <c r="C18" s="81"/>
@@ -16437,7 +16403,7 @@
       <c r="Q18" s="78"/>
       <c r="R18" s="157"/>
     </row>
-    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -16457,7 +16423,7 @@
       <c r="Q19" s="45"/>
       <c r="R19" s="157"/>
     </row>
-    <row r="20" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="134"/>
       <c r="C20" s="138"/>
@@ -16477,7 +16443,7 @@
       <c r="Q20" s="137"/>
       <c r="R20" s="157"/>
     </row>
-    <row r="21" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="76"/>
       <c r="C21" s="80"/>
@@ -16497,163 +16463,67 @@
       <c r="Q21" s="78"/>
       <c r="R21" s="157"/>
     </row>
-    <row r="22" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>16</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>379</v>
-      </c>
+    <row r="22" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="75"/>
-      <c r="F22" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="G22" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>483</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>483</v>
-      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="77"/>
-      <c r="M22" s="76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N22" s="78" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O22" s="79">
-        <v>42902</v>
-      </c>
-      <c r="P22" s="78" t="s">
-        <v>1238</v>
-      </c>
-      <c r="Q22" s="78" t="s">
-        <v>1242</v>
-      </c>
-      <c r="R22" s="157" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>17</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" s="76" t="s">
-        <v>357</v>
-      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="157"/>
+    </row>
+    <row r="23" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="G23" s="76" t="s">
-        <v>497</v>
-      </c>
-      <c r="H23" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="I23" s="76" t="s">
-        <v>428</v>
-      </c>
-      <c r="J23" s="76" t="s">
-        <v>462</v>
-      </c>
-      <c r="K23" s="76" t="s">
-        <v>462</v>
-      </c>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="77"/>
-      <c r="M23" s="76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N23" s="78" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O23" s="79">
-        <v>42902</v>
-      </c>
-      <c r="P23" s="78" t="s">
-        <v>1238</v>
-      </c>
-      <c r="Q23" s="78" t="s">
-        <v>1239</v>
-      </c>
-      <c r="R23" s="157" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>976</v>
-      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="157"/>
+    </row>
+    <row r="24" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>994</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>1009</v>
-      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N24" s="45" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O24" s="44">
-        <v>43024</v>
-      </c>
-      <c r="P24" s="161" t="s">
-        <v>1335</v>
-      </c>
-      <c r="Q24" s="43" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R24" s="167" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="12"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="167"/>
+    </row>
+    <row r="25" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -16705,319 +16575,127 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>140</v>
-      </c>
+    <row r="26" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>210</v>
-      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N26" s="45" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O26" s="44">
-        <v>42874</v>
-      </c>
-      <c r="P26" s="45" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Q26" s="45" t="s">
-        <v>1278</v>
-      </c>
-      <c r="R26" s="157" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>21</v>
-      </c>
-      <c r="B27" s="125" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>358</v>
-      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="157"/>
+    </row>
+    <row r="27" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" s="125" t="s">
-        <v>429</v>
-      </c>
-      <c r="J27" s="125" t="s">
-        <v>463</v>
-      </c>
-      <c r="K27" s="125" t="s">
-        <v>463</v>
-      </c>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
       <c r="L27" s="124"/>
-      <c r="M27" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="128" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O27" s="127">
-        <v>42902</v>
-      </c>
-      <c r="P27" s="128" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Q27" s="128" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R27" s="157" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>22</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>360</v>
-      </c>
+      <c r="M27" s="125"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="157"/>
+    </row>
+    <row r="28" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="75"/>
-      <c r="F28" s="76" t="s">
-        <v>498</v>
-      </c>
-      <c r="G28" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>395</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>465</v>
-      </c>
-      <c r="K28" s="76" t="s">
-        <v>465</v>
-      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="77"/>
-      <c r="M28" s="76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N28" s="78" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O28" s="79">
-        <v>42902</v>
-      </c>
-      <c r="P28" s="78" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q28" s="78" t="s">
-        <v>1247</v>
-      </c>
-      <c r="R28" s="157" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="M28" s="76"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="157"/>
+    </row>
+    <row r="29" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>896</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>896</v>
-      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O29" s="44">
-        <v>43004</v>
-      </c>
-      <c r="P29" s="45" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Q29" s="43" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R29" s="157" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>24</v>
-      </c>
-      <c r="B30" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>1155</v>
-      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="157"/>
+    </row>
+    <row r="30" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="123"/>
-      <c r="F30" s="124" t="s">
-        <v>492</v>
-      </c>
-      <c r="G30" s="124" t="s">
-        <v>492</v>
-      </c>
-      <c r="H30" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="I30" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="121" t="s">
-        <v>206</v>
-      </c>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
       <c r="L30" s="124"/>
-      <c r="M30" s="125" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N30" s="126" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O30" s="127">
-        <v>42874</v>
-      </c>
-      <c r="P30" s="128" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q30" s="128" t="s">
-        <v>1213</v>
-      </c>
-      <c r="R30" s="157" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>747</v>
-      </c>
+      <c r="M30" s="125"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="157"/>
+    </row>
+    <row r="31" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>898</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>898</v>
-      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="45" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O31" s="44">
-        <v>43003</v>
-      </c>
-      <c r="P31" s="45" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Q31" s="43" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R31" s="157" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="12"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="157"/>
+    </row>
+    <row r="32" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -17069,7 +16747,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -17121,7 +16799,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -17173,7 +16851,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -17225,7 +16903,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -17277,7 +16955,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -17329,7 +17007,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -17381,7 +17059,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -17433,7 +17111,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -17485,7 +17163,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -17537,7 +17215,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -17589,7 +17267,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -17641,7 +17319,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -17693,7 +17371,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -17745,7 +17423,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -17797,7 +17475,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -17849,7 +17527,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -17901,7 +17579,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -17953,7 +17631,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -18005,7 +17683,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -18057,7 +17735,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -18109,7 +17787,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -18161,7 +17839,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -18213,7 +17891,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -18265,7 +17943,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -18317,7 +17995,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -18369,7 +18047,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -18421,7 +18099,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -18473,7 +18151,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -18525,7 +18203,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -18577,7 +18255,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -18629,7 +18307,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -18681,7 +18359,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -18733,7 +18411,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -18785,7 +18463,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -18837,7 +18515,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -18889,7 +18567,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -18941,7 +18619,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -18993,7 +18671,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -19045,7 +18723,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -19097,7 +18775,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -19149,7 +18827,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -19201,7 +18879,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -19253,7 +18931,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -19305,7 +18983,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -19357,7 +19035,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -19409,7 +19087,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -19461,7 +19139,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -19513,7 +19191,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -19565,7 +19243,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -19617,7 +19295,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -19669,7 +19347,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -19721,7 +19399,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -19773,7 +19451,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -19825,7 +19503,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -19877,7 +19555,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -19929,7 +19607,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -19981,7 +19659,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -20033,7 +19711,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -20085,7 +19763,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -20137,7 +19815,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -20189,7 +19867,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -20241,7 +19919,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -20293,7 +19971,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -20345,7 +20023,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -20397,7 +20075,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -20449,7 +20127,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -20501,7 +20179,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -20553,7 +20231,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -20605,7 +20283,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -20657,7 +20335,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -20709,7 +20387,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -20761,7 +20439,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -20813,7 +20491,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -20865,7 +20543,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -20917,7 +20595,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -20969,7 +20647,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -21021,7 +20699,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -21073,7 +20751,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -21125,7 +20803,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -21177,7 +20855,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -21229,7 +20907,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -21281,7 +20959,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -21333,7 +21011,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -21385,7 +21063,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -21437,7 +21115,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -21489,7 +21167,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -21541,7 +21219,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -21589,7 +21267,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -21641,7 +21319,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -21693,7 +21371,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -21745,7 +21423,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -21797,7 +21475,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -21849,7 +21527,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -21901,7 +21579,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -21953,7 +21631,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -22005,7 +21683,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -22057,7 +21735,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -22109,7 +21787,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -22161,7 +21839,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -22213,7 +21891,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -22265,7 +21943,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -22317,7 +21995,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -22369,7 +22047,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -22421,7 +22099,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -22473,7 +22151,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="155">
         <v>131</v>
       </c>
@@ -22525,7 +22203,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -22577,7 +22255,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -22629,7 +22307,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -22681,7 +22359,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -22733,7 +22411,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -22785,7 +22463,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -22837,7 +22515,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -22889,7 +22567,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -22941,7 +22619,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -22993,7 +22671,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -23045,7 +22723,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -23097,7 +22775,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -23149,7 +22827,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -23201,7 +22879,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -23253,7 +22931,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -23305,7 +22983,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -23357,7 +23035,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -23409,7 +23087,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -23461,7 +23139,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:18" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -23513,16 +23191,16 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M157" s="36"/>
     </row>
-    <row r="158" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="148" t="s">
         <v>1334</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:K156">
+  <sortState ref="B7:K156">
     <sortCondition ref="B7:B156"/>
   </sortState>
   <mergeCells count="3">
@@ -23537,24 +23215,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
